--- a/杨留阳.xlsx
+++ b/杨留阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17580" windowHeight="10590"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,35 +28,35 @@
     <t>工作内容</t>
   </si>
   <si>
-    <t>2019.4.8</t>
-  </si>
-  <si>
-    <t>完善商品管理系统需求分析</t>
-  </si>
-  <si>
-    <t>2019.4.9</t>
-  </si>
-  <si>
-    <t>吸收上课知识，了解Hibernate</t>
-  </si>
-  <si>
-    <t>2019.4.10</t>
-  </si>
-  <si>
-    <t>Spring整合hibernate</t>
-  </si>
-  <si>
-    <t>2019.4.11</t>
-  </si>
-  <si>
-    <t>学习Maven+Spring+SpringMVC+Mysql相关知识
-安装学习ssms</t>
-  </si>
-  <si>
-    <t>2019.4.12</t>
-  </si>
-  <si>
-    <t>学习安装ssms</t>
+    <t>2019.4.13</t>
+  </si>
+  <si>
+    <t>了解Maven+Spring+SpringMVC+Hibermate+Mysql整合开发</t>
+  </si>
+  <si>
+    <t>2019.4.14</t>
+  </si>
+  <si>
+    <t>安装SQLserver</t>
+  </si>
+  <si>
+    <t>2019.4.15</t>
+  </si>
+  <si>
+    <t>SQLserver2016Express安装，配置远程连接</t>
+  </si>
+  <si>
+    <t>2019.4.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在eclipse纠正关于一些pom的错误
+</t>
+  </si>
+  <si>
+    <t>2019.4.17</t>
+  </si>
+  <si>
+    <t>重置Maven，找出错误</t>
   </si>
 </sst>
 </file>
@@ -64,9 +64,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -84,37 +84,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,35 +115,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,21 +207,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,25 +220,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,132 +243,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -376,54 +424,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,21 +434,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,16 +447,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,8 +490,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,23 +499,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/杨留阳.xlsx
+++ b/杨留阳.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="29040" windowHeight="12930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>第六周</t>
   </si>
@@ -28,35 +28,31 @@
     <t>工作内容</t>
   </si>
   <si>
-    <t>2019.4.13</t>
-  </si>
-  <si>
-    <t>了解Maven+Spring+SpringMVC+Hibermate+Mysql整合开发</t>
-  </si>
-  <si>
-    <t>2019.4.14</t>
-  </si>
-  <si>
-    <t>安装SQLserver</t>
-  </si>
-  <si>
-    <t>2019.4.15</t>
-  </si>
-  <si>
-    <t>SQLserver2016Express安装，配置远程连接</t>
-  </si>
-  <si>
-    <t>2019.4.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在eclipse纠正关于一些pom的错误
-</t>
-  </si>
-  <si>
-    <t>2019.4.17</t>
-  </si>
-  <si>
-    <t>重置Maven，找出错误</t>
+    <t>2019.4.20</t>
+  </si>
+  <si>
+    <t>选择模块，小组讨论</t>
+  </si>
+  <si>
+    <t>2019.4.21</t>
+  </si>
+  <si>
+    <t>探索dao里面src/main/java里面的错误更正方法</t>
+  </si>
+  <si>
+    <t>2019.4.22</t>
+  </si>
+  <si>
+    <t>纠正了所有关于pom文件的错误，学习构建模块</t>
+  </si>
+  <si>
+    <t>2019.4.23</t>
+  </si>
+  <si>
+    <t>2019.4.24</t>
+  </si>
+  <si>
+    <t>学习如何构建自己的框架</t>
   </si>
 </sst>
 </file>
@@ -64,9 +60,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -84,6 +80,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -92,9 +110,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,30 +154,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,52 +194,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,22 +218,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,187 +239,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,15 +430,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,11 +450,50 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,36 +530,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +538,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +550,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1025,7 +1021,7 @@
   <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1084,16 +1080,14 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
